--- a/문서/Matchai 문서/matchai 테스트결과서.xlsx
+++ b/문서/Matchai 문서/matchai 테스트결과서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\임창종\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B532FE-B476-4584-A714-CDFEBFF732DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{452A046F-DEB4-454E-AE76-7A38BC3AC1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개정이력" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">개정이력!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -29,6 +32,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,20 +41,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="157">
+  <si>
+    <t>개정이력</t>
+  </si>
+  <si>
+    <t>버전</t>
+  </si>
+  <si>
+    <t>변경일</t>
+  </si>
   <si>
     <r>
-      <t>1</t>
+      <t>구분</t>
     </r>
     <r>
       <rPr>
-        <sz val="8"/>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="휴먼명조"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 구분 : 변경 내용이 이전 문서에 대해 최초작성/추가/수정/삭제 중 선택 기입</t>
+      <t>1</t>
     </r>
   </si>
   <si>
@@ -70,6 +86,27 @@
     </r>
   </si>
   <si>
+    <t>작성자</t>
+  </si>
+  <si>
+    <t>승인자</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="휴먼명조"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 구분 : 변경 내용이 이전 문서에 대해 최초작성/추가/수정/삭제 중 선택 기입</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>2</t>
     </r>
@@ -85,141 +122,52 @@
     </r>
   </si>
   <si>
-    <t>전체 상세 진행 상태</t>
-  </si>
-  <si>
-    <r>
-      <t>구분</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
+    <t>No</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구정의</t>
+  </si>
+  <si>
+    <t>비고</t>
   </si>
   <si>
     <t>요구사항명세서</t>
   </si>
   <si>
-    <t>개정이력</t>
-  </si>
-  <si>
-    <t>테스트 항목</t>
-  </si>
-  <si>
-    <t>요구정의</t>
-  </si>
-  <si>
-    <t>시험결과</t>
-  </si>
-  <si>
-    <t>조건부양호</t>
-  </si>
-  <si>
-    <t>변경일</t>
-  </si>
-  <si>
-    <t>양호</t>
-  </si>
-  <si>
-    <t>미실시</t>
-  </si>
-  <si>
-    <t>승인자</t>
-  </si>
-  <si>
-    <t>대분류</t>
-  </si>
-  <si>
-    <t>항목수</t>
-  </si>
-  <si>
-    <t>양호율</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>작성자</t>
-  </si>
-  <si>
-    <t>재시험</t>
-  </si>
-  <si>
-    <t>실시율</t>
-  </si>
-  <si>
-    <t>불량</t>
-  </si>
-  <si>
-    <t>보류</t>
-  </si>
-  <si>
-    <t>버전</t>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>실시</t>
-  </si>
-  <si>
-    <t xml:space="preserve">조건부 양호 : 과업변경 항목 </t>
-  </si>
-  <si>
-    <t>통합테스트 결과 집계표</t>
-  </si>
-  <si>
     <t>기능명</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>로그인</t>
+    <t>발생 위치</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>오류 발생 원인 or 요구사항</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결 방법</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_USER_NT_01 테이블</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서 변경</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALTER TABLE TBL_USER_NT_01 MODIFY COLUMN USERPW VARCHAR(64) AFTER USEREMAIL;</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>회원가입</t>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>발생 위치</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_USER_NT_01 테이블</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>순서 변경</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결 방법</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALTER TABLE TBL_USER_NT_01 MODIFY COLUMN USERPW VARCHAR(64) AFTER USEREMAIL;</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -246,6 +194,10 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>UserController</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>UserController 내 postmapping 전반</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -259,6 +211,10 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>UserController 내 emailCheck()</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>DB 저장 불가 에러</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -272,6 +228,11 @@
   </si>
   <si>
     <t>auto increment 컬럼 useGeneratedKeys="true" keyProperty="SEQ"을 이용해 지정</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController, signup.js의 
+getTeams()</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -301,15 +262,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>UserController, signup.js의 
-getTeams()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserController 내 emailCheck()</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>1. getElementById를 이용해 모든 필드를 불러옴
 2. 모든 데이터를 json 형식으로 지정 후, data 변수에 담음
 3. JSON.stringify(data)를 이용해 저장</t>
@@ -325,6 +277,10 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
+    <t>로그인</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>UserController 내의 LoginCheck()</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -369,6 +325,12 @@
     <t>CustomOAuth2UserService 내</t>
   </si>
   <si>
+    <t>구글 사용자 정보에는 나이가 존재하지 않아 DB 저장 오류</t>
+  </si>
+  <si>
+    <t>DB에 들어갈 나이대 Default 값 설정</t>
+  </si>
+  <si>
     <t>사용자 정보 저장 불가</t>
   </si>
   <si>
@@ -396,12 +358,35 @@
     <t>mainboard.jsp 내</t>
   </si>
   <si>
+    <t>구글에서 가져온 사용자 이름과 기본 로그인에서 가져온 사용자 이름 상이</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>사용자 이름 변수 통일</t>
   </si>
   <si>
+    <t>경기예측 화면</t>
+  </si>
+  <si>
+    <t>BoardController 내</t>
+  </si>
+  <si>
+    <t>DB의 테이블에 들어오는 매치코드가 다름(404 Error)</t>
+  </si>
+  <si>
+    <t>Controller단에서 Null값을 체크하여 매치코드 조합 후 다시 조회진행</t>
+  </si>
+  <si>
     <t>세션이 있을 경우 회원가입 버튼이나 주소를 입력해도 회원가입 창으로 이동하지 않도록 설정해도 계속 이동</t>
   </si>
   <si>
+    <t>GetMapping("/user/signup") -&gt; PostMapping("/user/signup")으로 이동</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+  </si>
+  <si>
     <t>signup.jsp 내</t>
   </si>
   <si>
@@ -411,36 +396,27 @@
     <t>출력 내용 화면 내 -&gt; alert으로 변경</t>
   </si>
   <si>
+    <t>로그인</t>
+  </si>
+  <si>
     <t>user.xml 내</t>
   </si>
   <si>
     <t>DB 내 사용자 비밀번호 비암호화로 인한 로그인 오류</t>
   </si>
   <si>
+    <t>DB 내 사용자 비밀번호 암호화 SHA(O,256)</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
     <t>DB 내 사용자 비밀번호 비암호화</t>
   </si>
   <si>
-    <t>GetMapping("/user/signup") -&gt; PostMapping("/user/signup")으로 이동</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글에서 가져온 사용자 이름과 기본 로그인에서 가져온 사용자 이름 상이</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 내 사용자 비밀번호 암호화 SHA(O,256)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>login.jsp, login.js 내</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>로그인 문구 -&gt; 로고 클릭 시 메인보드 이동</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>오류 발생 원인 or 요구사항</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -501,14 +477,163 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>구글 사용자 정보에는 나이가 존재하지 않아 DB 저장 오류</t>
-  </si>
-  <si>
-    <t>DB에 들어갈 나이대 Default 값 설정</t>
-  </si>
-  <si>
-    <t>UserController</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <t>baseball REST API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API </t>
+  </si>
+  <si>
+    <t>POST 요청 시 JSON 형태의 Response를 받을 수 없음</t>
+  </si>
+  <si>
+    <t>JSON 파일의 메소드명 및 경로 문제를 수정하여 해결.</t>
+  </si>
+  <si>
+    <t>Unix</t>
+  </si>
+  <si>
+    <t>server 내</t>
+  </si>
+  <si>
+    <t>서버의 DB가 사라짐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sudo systemctl restart postgresql 명령어로 PostgreSQL을 재시작하여 해결.</t>
+  </si>
+  <si>
+    <t>유닉스에서 파이썬 스크립트 실행 시 JSON 파일이 작성되지 않음</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 스크립트가 서비스로 등록되어 있어 발생한 문제로, Tomcat에게 실행할 파이썬 파일 및 JSON 파일이 작성될 폴더의 그룹 권한을 Tomcat으로 변경. 또한, 해당 폴더의 권한을 777로 설정하고, baseball 그룹에 Tomcat을 추가하여 문제를 해결.</t>
+  </si>
+  <si>
+    <t>API용 baseball.war 실행 시 엔드포인트 요청 실패 (상태 코드 404, 302 등)</t>
+  </si>
+  <si>
+    <t>baseball 프로젝트의 빌드 방법을 JAR로 변환하고, /etc/systemd/system에 root 권한으로 baseball.service를 등록하여 문제를 해결.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ubuntu에서 사용할 Python을 찾지 못함</t>
+  </si>
+  <si>
+    <t>유닉스 경로의 venv에 설치된 Python 3.12 버전에서 .py 파일을 실행하도록 설정</t>
+  </si>
+  <si>
+    <t>Ubuntu에서 외부 라이브러리 설치 실패</t>
+  </si>
+  <si>
+    <t>venv를 사용하여 프로젝트용 Python 가상환경을 설치하고, 필요한 외부 라이브러리를 이 가상환경에 설치</t>
+  </si>
+  <si>
+    <t>MLB의 경기일정을 들고오는데에 있어 시간 계산 실패</t>
+  </si>
+  <si>
+    <t>date로 유닉스의 시간을 보니 현재 시간과 9시간의 차이가 있어, sudo timedatectl set-timezone Asia/Seoul 로 한국 표준시를 맞춰준 후 다시 엔드포인트 요청</t>
+  </si>
+  <si>
+    <t>.jar파일을 서버에 서비스 등록하여 systemctl.start oo.service 로 서비스를 시작하였으나 Whitelabel Error Page 404 에러 메세지를 띄움.</t>
+  </si>
+  <si>
+    <t>Spring boot 1.4.3이상의 버전부터는 프로젝트를 jar파일로 빌드시 jsp파일을 찾지못한다고 함. 빌드형식을 jar대신 war로 바꾸어 빌드하고, 다시 서비스 등록 하였음</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DB 내</t>
+  </si>
+  <si>
+    <t>mysql 에서 postgresql로 넘어갈때 pk인 seq들이 자동증가가 되지않아서 데이터가  들어가지않음</t>
+  </si>
+  <si>
+    <t>mysql에서 postgres로 데이터를 export하며 기존 mysql의 auto_increment가 되는줄 알았으나, postgres에는 데이터형을 serial로 만들어주어야 자동증가가 되었고, 한번 데이터형을 정해준 상태에서 serial로 변환하는것은 되지않기에, 시퀀스를 생성, 컬럼의 기본값을 설정, 기존 컬럼값을 시퀀스와 동기화 해주는것으로 자동증가를 만듦</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Xml파일 내</t>
+  </si>
+  <si>
+    <t>NullPointException Error</t>
+  </si>
+  <si>
+    <t>mysql에서 postgersql로 바뀌며 테이블과 컬럼명이 대문자에서 소문자로 변환되며 C#스크립트에서 Dictionary의 key값을 찾지 못해 발생하여 쿼리문에서 alias를 통해 대문자로 변경</t>
+  </si>
+  <si>
+    <t xml:space="preserve">빌드 시 </t>
+  </si>
+  <si>
+    <t>Webgl빌드 시 DB연결이 되지 않음</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coroutine을 이용해 비동기통신으로 자바의 mapping주소로 보낸 후 자바에서 퀘리문을 이용해 DB값을 unity로 리턴 함 </t>
+  </si>
+  <si>
+    <t>미니게임 내</t>
+  </si>
+  <si>
+    <t>Localhost에서 aws 로 전환 후 DB연관 부분에서 NullPointException 발생 C#에서 DAO를 GetComponent를 사용하여 서버 배포 시 DAO를 찾지 못해 발생하는 것을 파악하고 FindObjectofType을 사용해  유니티의 Inspector창에 직접적으로 연결 진행</t>
+  </si>
+  <si>
+    <t>Scene 내</t>
+  </si>
+  <si>
+    <t>구매 또는 판매 구현</t>
+  </si>
+  <si>
+    <t>인스턴스 복제 시 .name을 이용 해 복제되는 게임오브젝트에 itemid를 이름으로 설정 후 자식으로 Button을 넣은 뒤 transform.parent.gameObject를 통해 부모 오브젝트를 호출하고 .name을 통해 부모 오브젝트의 이름을 가져와 아이템아이디 특정</t>
+  </si>
+  <si>
+    <t>통합테스트 결과 집계표</t>
+  </si>
+  <si>
+    <t>전체 상세 진행 상태</t>
+  </si>
+  <si>
+    <t>대분류</t>
+  </si>
+  <si>
+    <t>항목수</t>
+  </si>
+  <si>
+    <t>시험결과</t>
+  </si>
+  <si>
+    <t>실시</t>
+  </si>
+  <si>
+    <t>양호</t>
+  </si>
+  <si>
+    <t>조건부양호</t>
+  </si>
+  <si>
+    <t>불량</t>
+  </si>
+  <si>
+    <t>보류</t>
+  </si>
+  <si>
+    <t>재시험</t>
+  </si>
+  <si>
+    <t>미실시</t>
+  </si>
+  <si>
+    <t>테스트 항목</t>
+  </si>
+  <si>
+    <t xml:space="preserve">조건부 양호 : 과업변경 항목 </t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>실시율</t>
+  </si>
+  <si>
+    <t>양호율</t>
   </si>
 </sst>
 </file>
@@ -520,7 +645,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -660,6 +785,17 @@
       <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Gg Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Gg Sans"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -855,7 +991,7 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -951,6 +1087,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,9 +1126,18 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1008,38 +1177,11 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1229,7 +1371,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1238,7 +1380,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1526,47 +1668,47 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="78.59765625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="10.59765625" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="2"/>
+    <col min="1" max="1" width="10.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="78.625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.45">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1576,7 +1718,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="14.4">
+    <row r="4" spans="1:6" ht="14.45">
       <c r="A4" s="6"/>
       <c r="B4" s="11"/>
       <c r="C4" s="6"/>
@@ -1584,7 +1726,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="14.4">
+    <row r="5" spans="1:6" ht="14.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1592,7 +1734,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="14.4">
+    <row r="6" spans="1:6" ht="14.45">
       <c r="A6" s="9"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1600,7 +1742,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="14.4">
+    <row r="7" spans="1:6" ht="14.45">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1608,7 +1750,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4">
+    <row r="8" spans="1:6" ht="14.45">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1616,7 +1758,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4">
+    <row r="9" spans="1:6" ht="14.45">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1624,7 +1766,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4">
+    <row r="10" spans="1:6" ht="14.45">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1632,7 +1774,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4">
+    <row r="11" spans="1:6" ht="14.45">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1640,7 +1782,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="14.4">
+    <row r="12" spans="1:6" ht="14.45">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1648,7 +1790,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4">
+    <row r="13" spans="1:6" ht="14.45">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1656,7 +1798,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4">
+    <row r="14" spans="1:6" ht="14.45">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1664,7 +1806,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="14.4">
+    <row r="15" spans="1:6" ht="14.45">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1674,16 +1816,16 @@
     </row>
     <row r="17" spans="1:1" ht="24" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="24" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.4"/>
-    <row r="20" spans="1:1" ht="14.4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="14.45"/>
+    <row r="20" spans="1:1" ht="14.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -1706,572 +1848,832 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" style="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.09765625" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.796875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.19921875" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.25" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.69921875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="11.75" style="33" customWidth="1"/>
     <col min="11" max="11" width="25.5" style="33" customWidth="1"/>
     <col min="12" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="50"/>
+      <c r="B2" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="51"/>
+      <c r="B3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="37">
+        <v>1</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" ht="31.15">
+      <c r="A5" s="37">
+        <v>2</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.15">
+      <c r="A6" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.15">
+      <c r="A7" s="37">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="37">
+        <v>5</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5">
+      <c r="A9" s="37">
+        <v>6.02</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="57"/>
-      <c r="B2" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="58"/>
-      <c r="B3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:6" ht="41.25">
+      <c r="A10" s="37">
+        <v>7.02</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5">
+      <c r="A11" s="37">
+        <v>8.02</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" ht="41.25">
+      <c r="A12" s="37">
+        <v>9.02</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="1:6" ht="27.75">
+      <c r="A13" s="37">
+        <v>10.02</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="1:6" ht="41.25">
+      <c r="A14" s="37">
+        <v>11.02</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" ht="13.5">
+      <c r="A15" s="37">
+        <v>12.02</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:6" ht="27.75">
+      <c r="A16" s="37">
+        <v>13.02</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5">
+      <c r="A17" s="37">
+        <v>14.02</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5">
+      <c r="A18" s="37">
+        <v>15.02</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5">
+      <c r="A19" s="37">
+        <v>16.02</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5">
+      <c r="A20" s="37">
+        <v>17.02</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5">
+      <c r="A21" s="37">
+        <v>18.02</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5">
+      <c r="A22" s="37">
+        <v>19.02</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" ht="27.75">
+      <c r="A23" s="37">
+        <v>20.02</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5">
+      <c r="A24" s="37">
+        <v>21.02</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.5">
+      <c r="A25" s="37">
+        <v>22.02</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.5">
+      <c r="A26" s="37">
+        <v>23.02</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.5">
+      <c r="A27" s="37">
+        <v>24.02</v>
+      </c>
+      <c r="B27" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.5">
+      <c r="A28" s="37">
+        <v>25.02</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5">
+      <c r="A29" s="37">
+        <v>26.02</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.5">
+      <c r="A30" s="37">
+        <v>27.02</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.5">
+      <c r="A31" s="37">
+        <v>28.02</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="59">
-        <v>1</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="56"/>
-    </row>
-    <row r="5" spans="1:6" ht="31.2">
-      <c r="A5" s="59">
-        <v>2</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.2">
-      <c r="A6" s="59">
-        <v>3.1</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.2">
-      <c r="A7" s="59">
-        <v>4</v>
-      </c>
-      <c r="B7" s="34" t="s">
+      <c r="D31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:6" ht="27.75">
+      <c r="A32" s="37">
+        <v>29.02</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" ht="27.75">
+      <c r="A33" s="37">
+        <v>30.02</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.5">
+      <c r="A34" s="37">
+        <v>31.02</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:6" ht="41.25">
+      <c r="A35" s="37">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:6" ht="27.75">
+      <c r="A36" s="37">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5">
+      <c r="A37" s="37">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="59">
-        <v>5</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="56"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="59">
-        <v>6</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:6" ht="46.8">
-      <c r="A10" s="59">
-        <v>7</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="59">
-        <v>8</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:6" ht="46.8">
-      <c r="A12" s="59">
-        <v>8.9964285714285701</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:6" ht="31.2">
-      <c r="A13" s="59">
-        <v>9.9928571428571402</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:6" ht="46.8">
-      <c r="A14" s="59">
-        <v>10.9892857142857</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="59">
-        <v>11.9857142857143</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="1:6" ht="31.2">
-      <c r="A16" s="59">
-        <v>12.9821428571429</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="59">
-        <v>13.978571428571399</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="56"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="59">
-        <v>14.975</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="59">
-        <v>15.9714285714286</v>
-      </c>
-      <c r="B19" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="56"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="59">
-        <v>16.967857142857099</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="56"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="59">
-        <v>17.964285714285701</v>
-      </c>
-      <c r="B21" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="56"/>
-    </row>
-    <row r="22" spans="1:6" ht="31.2">
-      <c r="A22" s="59">
-        <v>18.9607142857143</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="56"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="59">
-        <v>19.957142857142902</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="56"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="59">
-        <v>20.953571428571401</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="56"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="59">
-        <v>21.95</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="59">
-        <v>22.946428571428601</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="56"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="59">
-        <v>23.9428571428571</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="56"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="59">
-        <v>24.939285714285699</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="56"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="59">
-        <v>25.935714285714301</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="54" t="s">
+      <c r="E37" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" ht="27.75">
+      <c r="A38" s="37">
+        <v>35.020000000000003</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="56"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="59">
-        <v>26.9321428571429</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="34" t="s">
+      <c r="C38" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="56"/>
-    </row>
-    <row r="31" spans="1:6" ht="31.2">
-      <c r="A31" s="59">
-        <v>27.928571428571399</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="F31" s="56"/>
-    </row>
+      <c r="D38" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" ht="27.75">
+      <c r="A39" s="37">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" ht="27.75">
+      <c r="A40" s="37">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="1:6" ht="54.75">
+      <c r="A41" s="37">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" ht="41.25">
+      <c r="A42" s="37">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" ht="27.75">
+      <c r="A43" s="37">
+        <v>40.020000000000003</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:6" ht="41.25">
+      <c r="A44" s="37">
+        <v>41.02</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="F44" s="36"/>
+    </row>
+    <row r="45" spans="1:6" ht="41.25">
+      <c r="A45" s="37">
+        <v>42.02</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F45" s="36"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.5"/>
+    <row r="47" spans="1:6" ht="13.5"/>
+    <row r="48" spans="1:6" ht="13.5"/>
+    <row r="49" ht="13.5"/>
+    <row r="50" ht="13.5"/>
+    <row r="51" ht="13.5"/>
+    <row r="52" ht="13.5"/>
+    <row r="53" ht="13.5"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:E1"/>
@@ -2294,25 +2696,25 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.45"/>
   <cols>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="30.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="25.2">
-      <c r="B2" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+    <row r="2" spans="2:11" ht="25.15">
+      <c r="B2" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="17"/>
@@ -2339,68 +2741,68 @@
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="B5" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>18</v>
+      <c r="B6" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="22" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
+        <v>151</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="21" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="C8" s="23">
         <v>120</v>
@@ -2417,12 +2819,12 @@
       <c r="I8" s="24"/>
       <c r="J8" s="24"/>
       <c r="K8" s="25" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="22" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="C9" s="22">
         <v>120</v>
@@ -2455,7 +2857,7 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="29" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="C11" s="30">
         <v>1</v>
@@ -2471,7 +2873,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="29" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
